--- a/산출물/MyWordbook_테이블_명세서_v0.1.xlsx
+++ b/산출물/MyWordbook_테이블_명세서_v0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\myWordbook\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA97F9-FBA5-4793-9FB6-ABB110954F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F3310-52C6-422D-B9DD-6FA7884E2389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,7 +2671,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2681,10 +2687,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2706,12 +2712,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2947,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B216" workbookViewId="0">
-      <selection activeCell="I229" sqref="I229"/>
+    <sheetView tabSelected="1" topLeftCell="B234" workbookViewId="0">
+      <selection activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2971,16 +2971,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -3020,15 +3020,15 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3561,17 +3561,17 @@
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C23," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3585,19 +3585,19 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22" t="str">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="21" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B23=1,"",", "),F23)</f>
         <v>USER_ID</v>
@@ -3619,16 +3619,16 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" customHeight="1">
       <c r="B26" s="2" t="s">
@@ -3668,15 +3668,15 @@
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C26)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3957,17 +3957,17 @@
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C26," ADD CONSTRAINT ",C38," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3981,19 +3981,19 @@
       <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="22" t="str">
+      <c r="C38" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C26)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22" t="str">
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="21" t="str">
         <f>C29</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B38=1,"",", "),F38)</f>
         <v>CODE_GROUP</v>
@@ -4015,16 +4015,16 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1">
       <c r="B41" s="2" t="s">
@@ -4064,15 +4064,15 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C41)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4417,17 +4417,17 @@
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="19" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C41," ADD CONSTRAINT ",C55," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4441,19 +4441,19 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="22" t="str">
+      <c r="C55" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C41)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22" t="str">
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="21" t="str">
         <f t="shared" ref="F55:F56" si="6">C44</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B55=1,"",", "),F55)</f>
         <v>CODE_GROUP</v>
@@ -4467,19 +4467,19 @@
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="22" t="str">
+      <c r="C56" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C41)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22" t="str">
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="21" t="str">
         <f t="shared" si="6"/>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B56=1,"",", "),F56)</f>
         <v>, CODE_DETAIL</v>
@@ -4501,16 +4501,16 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" customHeight="1">
       <c r="B59" s="2" t="s">
@@ -4550,15 +4550,15 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C59)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4777,17 +4777,17 @@
       <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="19" t="s">
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C59," ADD CONSTRAINT ",C69," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4801,19 +4801,19 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="22" t="str">
+      <c r="C69" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C59)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22" t="str">
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="21" t="str">
         <f>C62</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B69=1,"",", "),F69)</f>
         <v>LOGIN_SEQ</v>
@@ -4835,16 +4835,16 @@
       </c>
     </row>
     <row r="71" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
     </row>
     <row r="72" spans="2:11" ht="17.25" customHeight="1">
       <c r="B72" s="2" t="s">
@@ -4884,15 +4884,15 @@
       <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C72)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5175,17 +5175,17 @@
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="19" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="21"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C72," ADD CONSTRAINT ",C84," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -5199,19 +5199,19 @@
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="22" t="str">
+      <c r="C84" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C72)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22" t="str">
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="21" t="str">
         <f>C75</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="21"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
       <c r="J84" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B84=1,"",", "),F84)</f>
         <v>REQ_SEQ</v>
@@ -5233,16 +5233,16 @@
       </c>
     </row>
     <row r="86" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
     </row>
     <row r="87" spans="2:11" ht="17.25" customHeight="1">
       <c r="B87" s="2" t="s">
@@ -5282,15 +5282,15 @@
       <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
       <c r="J88" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C87)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -5737,17 +5737,17 @@
       <c r="B103" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="19" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="21"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C87," ADD CONSTRAINT ",C104," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -5761,19 +5761,19 @@
       <c r="B104" s="3">
         <v>1</v>
       </c>
-      <c r="C104" s="22" t="str">
+      <c r="C104" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C87)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22" t="str">
+      <c r="D104" s="22"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="21" t="str">
         <f t="shared" ref="F104:F105" si="11">C90</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="21"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B104=1,"",", "),F104)</f>
         <v>BOARD_SEQ</v>
@@ -5787,19 +5787,19 @@
       <c r="B105" s="3">
         <v>2</v>
       </c>
-      <c r="C105" s="22" t="str">
+      <c r="C105" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C87)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D105" s="20"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22" t="str">
+      <c r="D105" s="22"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="21" t="str">
         <f t="shared" si="11"/>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B105=1,"",", "),F105)</f>
         <v>, ATCFILE_NUM</v>
@@ -5821,16 +5821,16 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="21"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="23"/>
     </row>
     <row r="108" spans="2:11" ht="17.25" customHeight="1">
       <c r="B108" s="2" t="s">
@@ -5870,15 +5870,15 @@
       <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="23"/>
       <c r="J109" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C108)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6003,17 +6003,17 @@
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="19" t="s">
+      <c r="D114" s="22"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="21"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="23"/>
       <c r="J114" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C108," ADD CONSTRAINT ",C115," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6027,19 +6027,19 @@
       <c r="B115" s="3">
         <v>1</v>
       </c>
-      <c r="C115" s="22" t="str">
+      <c r="C115" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C108)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="22" t="str">
+      <c r="D115" s="22"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="21" t="str">
         <f>C111</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="21"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="23"/>
       <c r="J115" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B115=1,"",", "),F115)</f>
         <v>SEQ_NM</v>
@@ -6061,16 +6061,16 @@
       </c>
     </row>
     <row r="117" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="21"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="23"/>
     </row>
     <row r="118" spans="2:11" ht="17.25" customHeight="1">
       <c r="B118" s="2" t="s">
@@ -6110,15 +6110,15 @@
       <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="21"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="23"/>
       <c r="J119" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C118)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6465,17 +6465,17 @@
       <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D131" s="20"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="19" t="s">
+      <c r="D131" s="22"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="21"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="23"/>
       <c r="J131" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C118," ADD CONSTRAINT ",C132," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6489,19 +6489,19 @@
       <c r="B132" s="3">
         <v>1</v>
       </c>
-      <c r="C132" s="22" t="str">
+      <c r="C132" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C118)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D132" s="20"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="22" t="str">
+      <c r="D132" s="22"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="21" t="str">
         <f>C121</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="21"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="23"/>
       <c r="J132" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B132=1,"",", "),F132)</f>
         <v>POLI_SEQ</v>
@@ -6523,16 +6523,16 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="21"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="23"/>
     </row>
     <row r="135" spans="2:11" ht="17.25" customHeight="1">
       <c r="B135" s="2" t="s">
@@ -6572,15 +6572,15 @@
       <c r="B136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="21"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="23"/>
       <c r="J136" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C135)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7151,17 +7151,17 @@
       <c r="B155" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D155" s="20"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="19" t="s">
+      <c r="D155" s="22"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="21"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="23"/>
       <c r="J155" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C135," ADD CONSTRAINT ",C156," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7175,19 +7175,19 @@
       <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="22" t="str">
+      <c r="C156" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C135)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D156" s="20"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="22" t="str">
+      <c r="D156" s="22"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="21" t="str">
         <f>C138</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="21"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="23"/>
       <c r="J156" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B156=1,"",", "),F156)</f>
         <v>MNU_SEQ</v>
@@ -7209,16 +7209,16 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="21"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="23"/>
     </row>
     <row r="159" spans="2:11" ht="17.25" customHeight="1">
       <c r="B159" s="2" t="s">
@@ -7258,15 +7258,15 @@
       <c r="B160" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="21"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="23"/>
       <c r="J160" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C159)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7581,17 +7581,17 @@
       <c r="B171" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D171" s="20"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="19" t="s">
+      <c r="D171" s="22"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="21"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="23"/>
       <c r="J171" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C159," ADD CONSTRAINT ",C172," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -7605,19 +7605,19 @@
       <c r="B172" s="3">
         <v>1</v>
       </c>
-      <c r="C172" s="22" t="str">
+      <c r="C172" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C159)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D172" s="20"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="22" t="str">
+      <c r="D172" s="22"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="21" t="str">
         <f>C162</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="21"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
       <c r="J172" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B172=1,"",", "),F172)</f>
         <v>ROLE_SEQ</v>
@@ -7639,16 +7639,16 @@
       </c>
     </row>
     <row r="174" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="21"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="23"/>
     </row>
     <row r="175" spans="2:11" ht="17.25" customHeight="1">
       <c r="B175" s="2" t="s">
@@ -7688,15 +7688,15 @@
       <c r="B176" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="21"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="23"/>
       <c r="J176" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C175)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -7949,17 +7949,17 @@
       <c r="B185" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D185" s="20"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="19" t="s">
+      <c r="D185" s="22"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="21"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
       <c r="J185" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C175," ADD CONSTRAINT ",C187," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -7973,19 +7973,19 @@
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="22" t="str">
+      <c r="C186" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C175)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D186" s="20"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="22" t="str">
+      <c r="D186" s="22"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="21" t="str">
         <f t="shared" ref="F186:F187" si="20">C178</f>
         <v>USER_ID</v>
       </c>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="21"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
       <c r="J186" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B186=1,"",", "),F186)</f>
         <v>USER_ID</v>
@@ -7999,19 +7999,19 @@
       <c r="B187" s="3">
         <v>2</v>
       </c>
-      <c r="C187" s="22" t="str">
+      <c r="C187" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C175)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D187" s="20"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="22" t="str">
+      <c r="D187" s="22"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="21" t="str">
         <f t="shared" si="20"/>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="21"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="23"/>
       <c r="J187" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B187=1,"",", "),F187)</f>
         <v>, ROLE_SEQ</v>
@@ -8033,16 +8033,16 @@
       </c>
     </row>
     <row r="189" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B189" s="19" t="s">
+      <c r="B189" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="21"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="23"/>
     </row>
     <row r="190" spans="2:11" ht="17.25" customHeight="1">
       <c r="B190" s="2" t="s">
@@ -8082,15 +8082,15 @@
       <c r="B191" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="21"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="23"/>
       <c r="J191" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C190)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8407,17 +8407,17 @@
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D202" s="20"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="19" t="s">
+      <c r="D202" s="22"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-      <c r="I202" s="21"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="23"/>
       <c r="J202" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C190," ADD CONSTRAINT ",C204," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8431,19 +8431,19 @@
       <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="22" t="str">
+      <c r="C203" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C190)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D203" s="20"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="22" t="str">
+      <c r="D203" s="22"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="21" t="str">
         <f t="shared" ref="F203:F204" si="23">C193</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="21"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="23"/>
       <c r="J203" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B203=1,"",", "),F203)</f>
         <v>MNU_SEQ</v>
@@ -8457,19 +8457,19 @@
       <c r="B204" s="3">
         <v>2</v>
       </c>
-      <c r="C204" s="22" t="str">
+      <c r="C204" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C190)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D204" s="20"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="22" t="str">
+      <c r="D204" s="22"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="21" t="str">
         <f t="shared" si="23"/>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20"/>
-      <c r="I204" s="21"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="23"/>
       <c r="J204" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B204=1,"",", "),F204)</f>
         <v>, ROLE_SEQ</v>
@@ -8491,16 +8491,16 @@
       </c>
     </row>
     <row r="206" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B206" s="19" t="s">
+      <c r="B206" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
-      <c r="I206" s="21"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
+      <c r="I206" s="23"/>
     </row>
     <row r="207" spans="2:11" ht="17.25" customHeight="1">
       <c r="B207" s="2" t="s">
@@ -8540,15 +8540,15 @@
       <c r="B208" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="20"/>
-      <c r="I208" s="21"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="23"/>
       <c r="J208" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C207)</f>
         <v>CREATE TABLE TB_WORDBOOK</v>
@@ -8829,17 +8829,17 @@
       <c r="B218" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="19" t="s">
+      <c r="C218" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D218" s="20"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="19" t="s">
+      <c r="D218" s="22"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-      <c r="I218" s="21"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
+      <c r="I218" s="23"/>
       <c r="J218" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C207," ADD CONSTRAINT ",C219," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_WORDBOOK ADD CONSTRAINT PK_TB_WORDBOOK PRIMARY KEY (</v>
@@ -8853,19 +8853,19 @@
       <c r="B219" s="3">
         <v>1</v>
       </c>
-      <c r="C219" s="22" t="str">
+      <c r="C219" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C207)</f>
         <v>PK_TB_WORDBOOK</v>
       </c>
-      <c r="D219" s="20"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="22" t="str">
+      <c r="D219" s="22"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="21" t="str">
         <f>C210</f>
         <v>WORDBOOK_SEQ</v>
       </c>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+      <c r="I219" s="23"/>
       <c r="J219" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B219=1,"",", "),F219)</f>
         <v>WORDBOOK_SEQ</v>
@@ -8887,16 +8887,16 @@
       </c>
     </row>
     <row r="221" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
-      <c r="H221" s="20"/>
-      <c r="I221" s="21"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="23"/>
     </row>
     <row r="222" spans="2:11" ht="17.25" customHeight="1">
       <c r="B222" s="2" t="s">
@@ -8936,15 +8936,15 @@
       <c r="B223" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D223" s="20"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20"/>
-      <c r="I223" s="21"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="22"/>
+      <c r="I223" s="23"/>
       <c r="J223" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C222)</f>
         <v>CREATE TABLE TB_WORD</v>
@@ -9345,17 +9345,17 @@
       <c r="B237" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="C237" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D237" s="20"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="19" t="s">
+      <c r="D237" s="22"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="21"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="22"/>
+      <c r="I237" s="23"/>
       <c r="J237" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C222," ADD CONSTRAINT ",C238," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_WORD ADD CONSTRAINT PK_TB_WORD PRIMARY KEY (</v>
@@ -9369,19 +9369,19 @@
       <c r="B238" s="3">
         <v>1</v>
       </c>
-      <c r="C238" s="22" t="str">
+      <c r="C238" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C222)</f>
         <v>PK_TB_WORD</v>
       </c>
-      <c r="D238" s="20"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="22" t="str">
+      <c r="D238" s="22"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="21" t="str">
         <f>C225</f>
         <v>WORDBOOK_SEQ</v>
       </c>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="21"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="23"/>
       <c r="J238" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B238=1,"",", "),F238)</f>
         <v>WORDBOOK_SEQ</v>
@@ -9395,19 +9395,19 @@
       <c r="B239" s="3">
         <v>2</v>
       </c>
-      <c r="C239" s="24" t="str">
+      <c r="C239" s="26" t="str">
         <f>_xlfn.CONCAT("PK_",C222)</f>
         <v>PK_TB_WORD</v>
       </c>
-      <c r="D239" s="25"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="24" t="str">
+      <c r="D239" s="27"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="26" t="str">
         <f>C226</f>
         <v>WORD_ID</v>
       </c>
-      <c r="G239" s="25"/>
-      <c r="H239" s="25"/>
-      <c r="I239" s="26"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="28"/>
       <c r="J239" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B239=1,"",", "),F239)</f>
         <v>, WORD_ID</v>
@@ -9429,16 +9429,16 @@
       </c>
     </row>
     <row r="241" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="20"/>
-      <c r="D241" s="20"/>
-      <c r="E241" s="20"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
-      <c r="H241" s="20"/>
-      <c r="I241" s="21"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="22"/>
+      <c r="I241" s="23"/>
     </row>
     <row r="242" spans="2:11" ht="17.25" customHeight="1">
       <c r="B242" s="2" t="s">
@@ -9478,15 +9478,15 @@
       <c r="B243" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C243" s="23" t="s">
+      <c r="C243" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D243" s="20"/>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="21"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="22"/>
+      <c r="I243" s="23"/>
       <c r="J243" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C242)</f>
         <v>CREATE TABLE TB_CHAL</v>
@@ -9613,7 +9613,7 @@
         <v>40</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="J247" s="5" t="str">
         <f t="shared" si="37"/>
@@ -9767,17 +9767,17 @@
       <c r="B253" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D253" s="20"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="19" t="s">
+      <c r="D253" s="22"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
-      <c r="I253" s="21"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="22"/>
+      <c r="I253" s="23"/>
       <c r="J253" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C242," ADD CONSTRAINT ",C254," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CHAL ADD CONSTRAINT PK_TB_CHAL PRIMARY KEY (</v>
@@ -9791,19 +9791,19 @@
       <c r="B254" s="3">
         <v>1</v>
       </c>
-      <c r="C254" s="22" t="str">
+      <c r="C254" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C242)</f>
         <v>PK_TB_CHAL</v>
       </c>
-      <c r="D254" s="20"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="22" t="str">
+      <c r="D254" s="22"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="21" t="str">
         <f>C245</f>
         <v>CHAL_SEQ</v>
       </c>
-      <c r="G254" s="20"/>
-      <c r="H254" s="20"/>
-      <c r="I254" s="21"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="22"/>
+      <c r="I254" s="23"/>
       <c r="J254" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B254=1,"",", "),F254)</f>
         <v>CHAL_SEQ</v>
@@ -9825,16 +9825,16 @@
       </c>
     </row>
     <row r="256" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B256" s="19" t="s">
+      <c r="B256" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C256" s="20"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
-      <c r="H256" s="20"/>
-      <c r="I256" s="21"/>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22"/>
+      <c r="I256" s="23"/>
     </row>
     <row r="257" spans="2:11" ht="17.25" customHeight="1">
       <c r="B257" s="2" t="s">
@@ -9874,15 +9874,15 @@
       <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="23" t="s">
+      <c r="C258" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D258" s="20"/>
-      <c r="E258" s="20"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
-      <c r="H258" s="20"/>
-      <c r="I258" s="21"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="22"/>
+      <c r="I258" s="23"/>
       <c r="J258" s="5" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C257)</f>
         <v>CREATE TABLE TB_CHAL_WORD</v>
@@ -10197,17 +10197,17 @@
       <c r="B269" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C269" s="19" t="s">
+      <c r="C269" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D269" s="20"/>
-      <c r="E269" s="21"/>
-      <c r="F269" s="19" t="s">
+      <c r="D269" s="22"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G269" s="20"/>
-      <c r="H269" s="20"/>
-      <c r="I269" s="21"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="23"/>
       <c r="J269" s="5" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C257," ADD CONSTRAINT ",C270," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CHAL_WORD ADD CONSTRAINT PK_TB_CHAL_WORD PRIMARY KEY (</v>
@@ -10221,19 +10221,19 @@
       <c r="B270" s="3">
         <v>1</v>
       </c>
-      <c r="C270" s="22" t="str">
+      <c r="C270" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
-      <c r="D270" s="20"/>
-      <c r="E270" s="21"/>
-      <c r="F270" s="22" t="str">
+      <c r="D270" s="22"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="21" t="str">
         <f>C260</f>
         <v>CHAL_SEQ</v>
       </c>
-      <c r="G270" s="20"/>
-      <c r="H270" s="20"/>
-      <c r="I270" s="21"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="23"/>
       <c r="J270" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B270=1,"",", "),F270)</f>
         <v>CHAL_SEQ</v>
@@ -10247,19 +10247,19 @@
       <c r="B271" s="3">
         <v>2</v>
       </c>
-      <c r="C271" s="22" t="str">
+      <c r="C271" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
-      <c r="D271" s="20"/>
-      <c r="E271" s="21"/>
-      <c r="F271" s="22" t="str">
+      <c r="D271" s="22"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="21" t="str">
         <f>C261</f>
         <v>WORDBOOK_SEQ</v>
       </c>
-      <c r="G271" s="20"/>
-      <c r="H271" s="20"/>
-      <c r="I271" s="21"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="22"/>
+      <c r="I271" s="23"/>
       <c r="J271" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B271=1,"",", "),F271)</f>
         <v>, WORDBOOK_SEQ</v>
@@ -10273,19 +10273,19 @@
       <c r="B272" s="3">
         <v>3</v>
       </c>
-      <c r="C272" s="22" t="str">
+      <c r="C272" s="21" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
-      <c r="D272" s="20"/>
-      <c r="E272" s="21"/>
-      <c r="F272" s="22" t="str">
+      <c r="D272" s="22"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="21" t="str">
         <f>C262</f>
         <v>WORD_ID</v>
       </c>
-      <c r="G272" s="20"/>
-      <c r="H272" s="20"/>
-      <c r="I272" s="21"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
+      <c r="I272" s="23"/>
       <c r="J272" s="5" t="str">
         <f>_xlfn.CONCAT(IF(B272=1,"",", "),F272)</f>
         <v>, WORD_ID</v>
@@ -12249,6 +12249,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="F269:I269"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="F270:I270"/>
+    <mergeCell ref="C243:I243"/>
+    <mergeCell ref="C253:E253"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="B256:I256"/>
+    <mergeCell ref="C258:I258"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="C223:I223"/>
+    <mergeCell ref="C237:E237"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="F239:I239"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="B241:I241"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="B134:I134"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="C176:I176"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="F186:I186"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="C191:I191"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="C208:I208"/>
+    <mergeCell ref="C218:E218"/>
+    <mergeCell ref="F218:I218"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="F114:I114"/>
     <mergeCell ref="C271:E271"/>
     <mergeCell ref="F271:I271"/>
     <mergeCell ref="C272:E272"/>
@@ -12273,92 +12359,6 @@
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="F105:I105"/>
     <mergeCell ref="B107:I107"/>
-    <mergeCell ref="C109:I109"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="C208:I208"/>
-    <mergeCell ref="C218:E218"/>
-    <mergeCell ref="F218:I218"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C176:I176"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="F186:I186"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="C191:I191"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="F203:I203"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="C223:I223"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="F237:I237"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="F239:I239"/>
-    <mergeCell ref="C238:E238"/>
-    <mergeCell ref="F238:I238"/>
-    <mergeCell ref="B241:I241"/>
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="F269:I269"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="F270:I270"/>
-    <mergeCell ref="C243:I243"/>
-    <mergeCell ref="C253:E253"/>
-    <mergeCell ref="F253:I253"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="B256:I256"/>
-    <mergeCell ref="C258:I258"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12397,10 +12397,10 @@
       <c r="B2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" ht="17.25" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -12589,15 +12589,15 @@
       <c r="B13" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:27" ht="17.25" customHeight="1">
       <c r="B14" s="8" t="s">
@@ -12836,12 +12836,12 @@
       <c r="B20" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:27" ht="17.25" customHeight="1">
       <c r="B21" s="8" t="s">
@@ -13015,15 +13015,15 @@
       <c r="B28" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="2:27" ht="17.25" customHeight="1">
       <c r="B29" s="8" t="s">
@@ -13646,13 +13646,13 @@
       <c r="B49" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="2:27" ht="17.25" customHeight="1">
       <c r="B50" s="8" t="s">
@@ -13792,14 +13792,14 @@
       <c r="B55" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="2:27" ht="17.25" customHeight="1">
       <c r="B56" s="8" t="s">
@@ -13973,12 +13973,12 @@
       <c r="B62" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="2:27" ht="17.25" customHeight="1">
       <c r="B63" s="8" t="s">
@@ -14982,10 +14982,10 @@
       <c r="B3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:27" ht="17.25" customHeight="1">
       <c r="B4" s="15" t="s">
@@ -15070,21 +15070,21 @@
       <c r="B8" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -15449,14 +15449,14 @@
       <c r="B17" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:27" ht="17.25" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -15598,14 +15598,14 @@
       <c r="B22" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="AA22" s="5" t="s">
         <v>216</v>
       </c>
@@ -15614,12 +15614,12 @@
       <c r="B23" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
       <c r="AA23" s="5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,"UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')")</f>
         <v>UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')</v>
@@ -16624,10 +16624,10 @@
       <c r="B2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" ht="17.25" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -16728,10 +16728,10 @@
       <c r="B8" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -16882,10 +16882,10 @@
       <c r="B15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="2:27" ht="17.25" customHeight="1">
       <c r="B16" s="8" t="s">
@@ -22349,8 +22349,8 @@
         <v>,(1,192,"word192","mean192","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="210" spans="2:27" s="31" customFormat="1" ht="17.25" customHeight="1">
-      <c r="AA210" s="32" t="s">
+    <row r="210" spans="2:27" s="19" customFormat="1" ht="17.25" customHeight="1">
+      <c r="AA210" s="20" t="s">
         <v>216</v>
       </c>
     </row>

--- a/산출물/MyWordbook_테이블_명세서_v0.1.xlsx
+++ b/산출물/MyWordbook_테이블_명세서_v0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\myWordbook\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F3310-52C6-422D-B9DD-6FA7884E2389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099BFC9-83C9-44D1-BFAF-3FCB3960E193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,11 +2437,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2677,7 +2679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2687,10 +2689,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2947,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B234" workbookViewId="0">
-      <selection activeCell="I247" sqref="I247"/>
+    <sheetView tabSelected="1" topLeftCell="B168" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2971,7 +2973,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="22"/>
@@ -3020,7 +3022,7 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="22"/>
@@ -3561,12 +3563,12 @@
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="22"/>
@@ -3585,13 +3587,13 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="21" t="str">
+      <c r="F23" s="24" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
@@ -3619,7 +3621,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="22"/>
@@ -3668,7 +3670,7 @@
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="22"/>
@@ -3957,12 +3959,12 @@
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="22"/>
@@ -3981,13 +3983,13 @@
       <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="21" t="str">
+      <c r="C38" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C26)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="21" t="str">
+      <c r="F38" s="24" t="str">
         <f>C29</f>
         <v>CODE_GROUP</v>
       </c>
@@ -4015,7 +4017,7 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="22"/>
@@ -4064,7 +4066,7 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="22"/>
@@ -4417,12 +4419,12 @@
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="22"/>
@@ -4441,13 +4443,13 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="21" t="str">
+      <c r="C55" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C41)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="23"/>
-      <c r="F55" s="21" t="str">
+      <c r="F55" s="24" t="str">
         <f t="shared" ref="F55:F56" si="6">C44</f>
         <v>CODE_GROUP</v>
       </c>
@@ -4467,13 +4469,13 @@
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="21" t="str">
+      <c r="C56" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C41)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="23"/>
-      <c r="F56" s="21" t="str">
+      <c r="F56" s="24" t="str">
         <f t="shared" si="6"/>
         <v>CODE_DETAIL</v>
       </c>
@@ -4501,7 +4503,7 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="22"/>
@@ -4550,7 +4552,7 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="22"/>
@@ -4777,12 +4779,12 @@
       <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G68" s="22"/>
@@ -4801,13 +4803,13 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="21" t="str">
+      <c r="C69" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C59)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="23"/>
-      <c r="F69" s="21" t="str">
+      <c r="F69" s="24" t="str">
         <f>C62</f>
         <v>LOGIN_SEQ</v>
       </c>
@@ -4835,7 +4837,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="22"/>
@@ -4884,7 +4886,7 @@
       <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="25" t="s">
         <v>103</v>
       </c>
       <c r="D73" s="22"/>
@@ -5175,12 +5177,12 @@
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G83" s="22"/>
@@ -5199,13 +5201,13 @@
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="21" t="str">
+      <c r="C84" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C72)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="23"/>
-      <c r="F84" s="21" t="str">
+      <c r="F84" s="24" t="str">
         <f>C75</f>
         <v>REQ_SEQ</v>
       </c>
@@ -5233,7 +5235,7 @@
       </c>
     </row>
     <row r="86" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="22"/>
@@ -5282,7 +5284,7 @@
       <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D88" s="22"/>
@@ -5737,12 +5739,12 @@
       <c r="B103" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="23"/>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G103" s="22"/>
@@ -5761,13 +5763,13 @@
       <c r="B104" s="3">
         <v>1</v>
       </c>
-      <c r="C104" s="21" t="str">
+      <c r="C104" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C87)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="23"/>
-      <c r="F104" s="21" t="str">
+      <c r="F104" s="24" t="str">
         <f t="shared" ref="F104:F105" si="11">C90</f>
         <v>BOARD_SEQ</v>
       </c>
@@ -5787,13 +5789,13 @@
       <c r="B105" s="3">
         <v>2</v>
       </c>
-      <c r="C105" s="21" t="str">
+      <c r="C105" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C87)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="21" t="str">
+      <c r="F105" s="24" t="str">
         <f t="shared" si="11"/>
         <v>ATCFILE_NUM</v>
       </c>
@@ -5821,7 +5823,7 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B107" s="25" t="s">
+      <c r="B107" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="22"/>
@@ -5870,7 +5872,7 @@
       <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="25" t="s">
         <v>142</v>
       </c>
       <c r="D109" s="22"/>
@@ -6003,12 +6005,12 @@
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="25" t="s">
+      <c r="F114" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G114" s="22"/>
@@ -6027,13 +6029,13 @@
       <c r="B115" s="3">
         <v>1</v>
       </c>
-      <c r="C115" s="21" t="str">
+      <c r="C115" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C108)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="21" t="str">
+      <c r="F115" s="24" t="str">
         <f>C111</f>
         <v>SEQ_NM</v>
       </c>
@@ -6061,7 +6063,7 @@
       </c>
     </row>
     <row r="117" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="22"/>
@@ -6110,7 +6112,7 @@
       <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="25" t="s">
         <v>149</v>
       </c>
       <c r="D119" s="22"/>
@@ -6465,12 +6467,12 @@
       <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="23"/>
-      <c r="F131" s="25" t="s">
+      <c r="F131" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G131" s="22"/>
@@ -6489,13 +6491,13 @@
       <c r="B132" s="3">
         <v>1</v>
       </c>
-      <c r="C132" s="21" t="str">
+      <c r="C132" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C118)</f>
         <v>PK_TB_POLI</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="21" t="str">
+      <c r="F132" s="24" t="str">
         <f>C121</f>
         <v>POLI_SEQ</v>
       </c>
@@ -6523,7 +6525,7 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="22"/>
@@ -6572,7 +6574,7 @@
       <c r="B136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="25" t="s">
         <v>162</v>
       </c>
       <c r="D136" s="22"/>
@@ -7151,12 +7153,12 @@
       <c r="B155" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="23"/>
-      <c r="F155" s="25" t="s">
+      <c r="F155" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G155" s="22"/>
@@ -7175,13 +7177,13 @@
       <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="21" t="str">
+      <c r="C156" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C135)</f>
         <v>PK_TB_MNU</v>
       </c>
       <c r="D156" s="22"/>
       <c r="E156" s="23"/>
-      <c r="F156" s="21" t="str">
+      <c r="F156" s="24" t="str">
         <f>C138</f>
         <v>MNU_SEQ</v>
       </c>
@@ -7209,7 +7211,7 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B158" s="25" t="s">
+      <c r="B158" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="22"/>
@@ -7258,7 +7260,7 @@
       <c r="B160" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="25" t="s">
         <v>190</v>
       </c>
       <c r="D160" s="22"/>
@@ -7581,12 +7583,12 @@
       <c r="B171" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D171" s="22"/>
       <c r="E171" s="23"/>
-      <c r="F171" s="25" t="s">
+      <c r="F171" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G171" s="22"/>
@@ -7605,13 +7607,13 @@
       <c r="B172" s="3">
         <v>1</v>
       </c>
-      <c r="C172" s="21" t="str">
+      <c r="C172" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C159)</f>
         <v>PK_TB_ROLE</v>
       </c>
       <c r="D172" s="22"/>
       <c r="E172" s="23"/>
-      <c r="F172" s="21" t="str">
+      <c r="F172" s="24" t="str">
         <f>C162</f>
         <v>ROLE_SEQ</v>
       </c>
@@ -7639,7 +7641,7 @@
       </c>
     </row>
     <row r="174" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C174" s="22"/>
@@ -7688,7 +7690,7 @@
       <c r="B176" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="25" t="s">
         <v>200</v>
       </c>
       <c r="D176" s="22"/>
@@ -7949,12 +7951,12 @@
       <c r="B185" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D185" s="22"/>
       <c r="E185" s="23"/>
-      <c r="F185" s="25" t="s">
+      <c r="F185" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G185" s="22"/>
@@ -7973,13 +7975,13 @@
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="21" t="str">
+      <c r="C186" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C175)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
       <c r="D186" s="22"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="21" t="str">
+      <c r="F186" s="24" t="str">
         <f t="shared" ref="F186:F187" si="20">C178</f>
         <v>USER_ID</v>
       </c>
@@ -7999,13 +8001,13 @@
       <c r="B187" s="3">
         <v>2</v>
       </c>
-      <c r="C187" s="21" t="str">
+      <c r="C187" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C175)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
       <c r="D187" s="22"/>
       <c r="E187" s="23"/>
-      <c r="F187" s="21" t="str">
+      <c r="F187" s="24" t="str">
         <f t="shared" si="20"/>
         <v>ROLE_SEQ</v>
       </c>
@@ -8033,7 +8035,7 @@
       </c>
     </row>
     <row r="189" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C189" s="22"/>
@@ -8082,7 +8084,7 @@
       <c r="B191" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="25" t="s">
         <v>203</v>
       </c>
       <c r="D191" s="22"/>
@@ -8407,12 +8409,12 @@
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D202" s="22"/>
       <c r="E202" s="23"/>
-      <c r="F202" s="25" t="s">
+      <c r="F202" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G202" s="22"/>
@@ -8431,13 +8433,13 @@
       <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="21" t="str">
+      <c r="C203" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C190)</f>
         <v>PK_TB_AUTH</v>
       </c>
       <c r="D203" s="22"/>
       <c r="E203" s="23"/>
-      <c r="F203" s="21" t="str">
+      <c r="F203" s="24" t="str">
         <f t="shared" ref="F203:F204" si="23">C193</f>
         <v>MNU_SEQ</v>
       </c>
@@ -8457,13 +8459,13 @@
       <c r="B204" s="3">
         <v>2</v>
       </c>
-      <c r="C204" s="21" t="str">
+      <c r="C204" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C190)</f>
         <v>PK_TB_AUTH</v>
       </c>
       <c r="D204" s="22"/>
       <c r="E204" s="23"/>
-      <c r="F204" s="21" t="str">
+      <c r="F204" s="24" t="str">
         <f t="shared" si="23"/>
         <v>ROLE_SEQ</v>
       </c>
@@ -8491,7 +8493,7 @@
       </c>
     </row>
     <row r="206" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B206" s="25" t="s">
+      <c r="B206" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C206" s="22"/>
@@ -8540,7 +8542,7 @@
       <c r="B208" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="24" t="s">
+      <c r="C208" s="25" t="s">
         <v>316</v>
       </c>
       <c r="D208" s="22"/>
@@ -8829,12 +8831,12 @@
       <c r="B218" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="23"/>
-      <c r="F218" s="25" t="s">
+      <c r="F218" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G218" s="22"/>
@@ -8853,13 +8855,13 @@
       <c r="B219" s="3">
         <v>1</v>
       </c>
-      <c r="C219" s="21" t="str">
+      <c r="C219" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C207)</f>
         <v>PK_TB_WORDBOOK</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="23"/>
-      <c r="F219" s="21" t="str">
+      <c r="F219" s="24" t="str">
         <f>C210</f>
         <v>WORDBOOK_SEQ</v>
       </c>
@@ -8887,7 +8889,7 @@
       </c>
     </row>
     <row r="221" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B221" s="25" t="s">
+      <c r="B221" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="22"/>
@@ -8936,7 +8938,7 @@
       <c r="B223" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C223" s="24" t="s">
+      <c r="C223" s="25" t="s">
         <v>322</v>
       </c>
       <c r="D223" s="22"/>
@@ -9345,12 +9347,12 @@
       <c r="B237" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C237" s="25" t="s">
+      <c r="C237" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D237" s="22"/>
       <c r="E237" s="23"/>
-      <c r="F237" s="25" t="s">
+      <c r="F237" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G237" s="22"/>
@@ -9369,13 +9371,13 @@
       <c r="B238" s="3">
         <v>1</v>
       </c>
-      <c r="C238" s="21" t="str">
+      <c r="C238" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C222)</f>
         <v>PK_TB_WORD</v>
       </c>
       <c r="D238" s="22"/>
       <c r="E238" s="23"/>
-      <c r="F238" s="21" t="str">
+      <c r="F238" s="24" t="str">
         <f>C225</f>
         <v>WORDBOOK_SEQ</v>
       </c>
@@ -9429,7 +9431,7 @@
       </c>
     </row>
     <row r="241" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B241" s="25" t="s">
+      <c r="B241" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C241" s="22"/>
@@ -9478,7 +9480,7 @@
       <c r="B243" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C243" s="24" t="s">
+      <c r="C243" s="25" t="s">
         <v>354</v>
       </c>
       <c r="D243" s="22"/>
@@ -9767,12 +9769,12 @@
       <c r="B253" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C253" s="25" t="s">
+      <c r="C253" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D253" s="22"/>
       <c r="E253" s="23"/>
-      <c r="F253" s="25" t="s">
+      <c r="F253" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G253" s="22"/>
@@ -9791,13 +9793,13 @@
       <c r="B254" s="3">
         <v>1</v>
       </c>
-      <c r="C254" s="21" t="str">
+      <c r="C254" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C242)</f>
         <v>PK_TB_CHAL</v>
       </c>
       <c r="D254" s="22"/>
       <c r="E254" s="23"/>
-      <c r="F254" s="21" t="str">
+      <c r="F254" s="24" t="str">
         <f>C245</f>
         <v>CHAL_SEQ</v>
       </c>
@@ -9825,7 +9827,7 @@
       </c>
     </row>
     <row r="256" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B256" s="25" t="s">
+      <c r="B256" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C256" s="22"/>
@@ -9874,7 +9876,7 @@
       <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="24" t="s">
+      <c r="C258" s="25" t="s">
         <v>363</v>
       </c>
       <c r="D258" s="22"/>
@@ -10197,12 +10199,12 @@
       <c r="B269" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C269" s="25" t="s">
+      <c r="C269" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D269" s="22"/>
       <c r="E269" s="23"/>
-      <c r="F269" s="25" t="s">
+      <c r="F269" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G269" s="22"/>
@@ -10221,13 +10223,13 @@
       <c r="B270" s="3">
         <v>1</v>
       </c>
-      <c r="C270" s="21" t="str">
+      <c r="C270" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
       <c r="D270" s="22"/>
       <c r="E270" s="23"/>
-      <c r="F270" s="21" t="str">
+      <c r="F270" s="24" t="str">
         <f>C260</f>
         <v>CHAL_SEQ</v>
       </c>
@@ -10247,13 +10249,13 @@
       <c r="B271" s="3">
         <v>2</v>
       </c>
-      <c r="C271" s="21" t="str">
+      <c r="C271" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
       <c r="D271" s="22"/>
       <c r="E271" s="23"/>
-      <c r="F271" s="21" t="str">
+      <c r="F271" s="24" t="str">
         <f>C261</f>
         <v>WORDBOOK_SEQ</v>
       </c>
@@ -10273,13 +10275,13 @@
       <c r="B272" s="3">
         <v>3</v>
       </c>
-      <c r="C272" s="21" t="str">
+      <c r="C272" s="24" t="str">
         <f>_xlfn.CONCAT("PK_",C257)</f>
         <v>PK_TB_CHAL_WORD</v>
       </c>
       <c r="D272" s="22"/>
       <c r="E272" s="23"/>
-      <c r="F272" s="21" t="str">
+      <c r="F272" s="24" t="str">
         <f>C262</f>
         <v>WORD_ID</v>
       </c>
@@ -12249,56 +12251,39 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="F269:I269"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="F270:I270"/>
-    <mergeCell ref="C243:I243"/>
-    <mergeCell ref="C253:E253"/>
-    <mergeCell ref="F253:I253"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="B256:I256"/>
-    <mergeCell ref="C258:I258"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="C223:I223"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="F237:I237"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="F239:I239"/>
-    <mergeCell ref="C238:E238"/>
-    <mergeCell ref="F238:I238"/>
-    <mergeCell ref="B241:I241"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="C88:I88"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="C176:I176"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="F186:I186"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="C191:I191"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="F203:I203"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="F271:I271"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="F272:I272"/>
+    <mergeCell ref="C73:I73"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="B158:I158"/>
+    <mergeCell ref="C160:I160"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B71:I71"/>
     <mergeCell ref="C219:E219"/>
     <mergeCell ref="F219:I219"/>
     <mergeCell ref="B206:I206"/>
@@ -12323,42 +12308,59 @@
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C176:I176"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="F186:I186"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="C191:I191"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="C88:I88"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="B134:I134"/>
+    <mergeCell ref="C136:I136"/>
     <mergeCell ref="C109:I109"/>
     <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B71:I71"/>
     <mergeCell ref="F114:I114"/>
-    <mergeCell ref="C271:E271"/>
-    <mergeCell ref="F271:I271"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="F272:I272"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="C171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="B158:I158"/>
-    <mergeCell ref="C160:I160"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="C223:I223"/>
+    <mergeCell ref="C237:E237"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="F239:I239"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="B241:I241"/>
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="F269:I269"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="F270:I270"/>
+    <mergeCell ref="C243:I243"/>
+    <mergeCell ref="C253:E253"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="B256:I256"/>
+    <mergeCell ref="C258:I258"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12370,8 +12372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AA899"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12397,7 +12399,7 @@
       <c r="B2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="23"/>
@@ -12589,7 +12591,7 @@
       <c r="B13" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="22"/>
@@ -12836,7 +12838,7 @@
       <c r="B20" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="22"/>
@@ -13015,7 +13017,7 @@
       <c r="B28" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="22"/>
@@ -13646,7 +13648,7 @@
       <c r="B49" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="22"/>
@@ -13792,7 +13794,7 @@
       <c r="B55" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D55" s="22"/>
@@ -14982,7 +14984,7 @@
       <c r="B3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D3" s="23"/>
@@ -15449,7 +15451,7 @@
       <c r="B17" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>201</v>
       </c>
       <c r="D17" s="22"/>
@@ -15598,7 +15600,7 @@
       <c r="B22" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>160</v>
       </c>
       <c r="D22" s="22"/>
@@ -15614,7 +15616,7 @@
       <c r="B23" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -16624,7 +16626,7 @@
       <c r="B2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D2" s="23"/>
@@ -16728,7 +16730,7 @@
       <c r="B8" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>314</v>
       </c>
       <c r="D8" s="23"/>
@@ -16882,7 +16884,7 @@
       <c r="B15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="23"/>
